--- a/biology/Médecine/James-Edward_Ruffier/James-Edward_Ruffier.xlsx
+++ b/biology/Médecine/James-Edward_Ruffier/James-Edward_Ruffier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James-Edward Ruffier, né le 24 juillet 1875 à Mèze (Hérault[1]) et mort à Cannes (Alpes-Maritimes) le 17 novembre 1964[2], est un médecin hygiéniste français à l’origine d’une méthode de culture physique et du test d’effort qui porte son nom.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James-Edward Ruffier, né le 24 juillet 1875 à Mèze (Hérault) et mort à Cannes (Alpes-Maritimes) le 17 novembre 1964, est un médecin hygiéniste français à l’origine d’une méthode de culture physique et du test d’effort qui porte son nom.
 </t>
         </is>
       </c>
@@ -511,15 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James-Edward est le fils de Julio Emilio Ruffier (1844-1916), négociant en vins et de Selina Mary Toshach (1850-1918). James-Edward Ruffier marié à Henriette Pérard ont eu un fils Jacques Henry (1903-2000) ayant exercé comme médecin et une fille Jackeline (1917-?). Le docteur Jacques Henry et son épouse Jeanne Duval ont eu une fille, Simone (1919-?)[2].
-La salle de la rue de la Victoire
-Dès le début du XXe siècle il dirige une salle de culture physique sise au 35 rue de la Victoire[3] à Paris où il offre à sa clientèle gymnastique orthopédique et médicale associée à l’hydrothérapie et au massage. Il s’inscrit pleinement dans le mouvement amorcé par Edmond Desbonnet et le docteur Georges Rouhet, associant les sports, particulièrement le cyclotourisme, le jiu-jitsu et les jeux à la culture physique. Il publie son premier ouvrage Soyons forts en 1909, véritable traité de culturisme puis entre les deux-guerres un traité de gymnastique médicale (1921) et un traité de massage (1925)[4]. Sa doctrine est basée sur la règle physiologique simple et bien connue : « tout organe qui fonctionne à plein se développe au maximum, tout organe qui fonctionne peu dégénère et s’atrophie ».
-Le collège de moniteurs d’Antibes
-En 1940 il est nommé médecin du collège national de moniteurs et d'athlètes d’Antibes (CNMA) nouvellement créé et remplacé en 1945 par l'École militaire d'escrime et de sports de combat (EMESC). C’est alors qu’il se consacre particulièrement à l’évaluation des aptitudes physiques et conçoit un test qui reste toujours en usage, le test de Ruffier[5] repris en 1950 par Dickson[6].
-Le Bocage
-Il ouvre ensuite à Cannes une maison de cure physique pour enfants et adolescents, le Bocage. C'est là qu'il décède en 1964 à l'âge de 89 ans. La Fédération européenne de culture physique fondamentale[7] s’appuie toujours sur ses travaux et ses adeptes français poursuivent la pratique de sa méthode à travers une fédération nationale créée en 1980 par transformation de l'association des amis du docteur Ruffier[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James-Edward est le fils de Julio Emilio Ruffier (1844-1916), négociant en vins et de Selina Mary Toshach (1850-1918). James-Edward Ruffier marié à Henriette Pérard ont eu un fils Jacques Henry (1903-2000) ayant exercé comme médecin et une fille Jackeline (1917-?). Le docteur Jacques Henry et son épouse Jeanne Duval ont eu une fille, Simone (1919-?).
 </t>
         </is>
       </c>
@@ -545,10 +553,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La salle de la rue de la Victoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le début du XXe siècle il dirige une salle de culture physique sise au 35 rue de la Victoire à Paris où il offre à sa clientèle gymnastique orthopédique et médicale associée à l’hydrothérapie et au massage. Il s’inscrit pleinement dans le mouvement amorcé par Edmond Desbonnet et le docteur Georges Rouhet, associant les sports, particulièrement le cyclotourisme, le jiu-jitsu et les jeux à la culture physique. Il publie son premier ouvrage Soyons forts en 1909, véritable traité de culturisme puis entre les deux-guerres un traité de gymnastique médicale (1921) et un traité de massage (1925). Sa doctrine est basée sur la règle physiologique simple et bien connue : « tout organe qui fonctionne à plein se développe au maximum, tout organe qui fonctionne peu dégénère et s’atrophie ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>James-Edward_Ruffier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James-Edward_Ruffier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le collège de moniteurs d’Antibes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1940 il est nommé médecin du collège national de moniteurs et d'athlètes d’Antibes (CNMA) nouvellement créé et remplacé en 1945 par l'École militaire d'escrime et de sports de combat (EMESC). C’est alors qu’il se consacre particulièrement à l’évaluation des aptitudes physiques et conçoit un test qui reste toujours en usage, le test de Ruffier repris en 1950 par Dickson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James-Edward_Ruffier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James-Edward_Ruffier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Bocage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ouvre ensuite à Cannes une maison de cure physique pour enfants et adolescents, le Bocage. C'est là qu'il décède en 1964 à l'âge de 89 ans. La Fédération européenne de culture physique fondamentale s’appuie toujours sur ses travaux et ses adeptes français poursuivent la pratique de sa méthode à travers une fédération nationale créée en 1980 par transformation de l'association des amis du docteur Ruffier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>James-Edward_Ruffier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James-Edward_Ruffier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses ouvrages sont en leur temps de véritables traités fondamentaux et certains sont réédités après son décès :
 Jean-Edward Ruffier, Soyons forts, Paris, Physis, 1948 (réédition) 1re édition en 1909, 3e en 1914 ;
@@ -561,31 +682,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>James-Edward_Ruffier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/James-Edward_Ruffier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Titres et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Edward Ruffier est :
 chevalier de la Légion d'honneur (1950) ;
